--- a/StateWise_Area.xlsx
+++ b/StateWise_Area.xlsx
@@ -19,7 +19,7 @@
     <t>State</t>
   </si>
   <si>
-    <t>Area in square km</t>
+    <t>Area</t>
   </si>
   <si>
     <t>Rajasthan</t>
@@ -135,7 +135,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -146,6 +146,12 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -182,10 +188,10 @@
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
     </xf>
-    <xf xfId="0" numFmtId="1" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="1" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="1" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="1" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
@@ -514,7 +520,7 @@
         <v>1</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -522,7 +528,7 @@
         <v>342239</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
@@ -530,7 +536,7 @@
         <v>308245</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
@@ -538,7 +544,7 @@
         <v>307713</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
@@ -546,7 +552,7 @@
         <v>240928</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
       <c r="A6" s="1" t="s">
         <v>6</v>
       </c>
@@ -554,7 +560,7 @@
         <v>196024</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
       <c r="A7" s="1" t="s">
         <v>7</v>
       </c>
@@ -562,7 +568,7 @@
         <v>191792</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
       <c r="A8" s="1" t="s">
         <v>8</v>
       </c>
@@ -570,7 +576,7 @@
         <v>162975</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
       <c r="A9" s="1" t="s">
         <v>9</v>
       </c>
@@ -578,7 +584,7 @@
         <v>155707</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
       <c r="A10" s="1" t="s">
         <v>10</v>
       </c>
@@ -586,7 +592,7 @@
         <v>135191</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5">
       <c r="A11" s="1" t="s">
         <v>11</v>
       </c>
@@ -594,7 +600,7 @@
         <v>130058</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="19.5">
       <c r="A12" s="1" t="s">
         <v>12</v>
       </c>
@@ -602,7 +608,7 @@
         <v>112077</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="19.5">
       <c r="A13" s="1" t="s">
         <v>13</v>
       </c>
@@ -610,7 +616,7 @@
         <v>94163</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="19.5">
       <c r="A14" s="1" t="s">
         <v>14</v>
       </c>
@@ -618,7 +624,7 @@
         <v>88752</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="19.5">
       <c r="A15" s="1" t="s">
         <v>15</v>
       </c>
@@ -626,7 +632,7 @@
         <v>83743</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="19.5">
       <c r="A16" s="1" t="s">
         <v>16</v>
       </c>
@@ -634,7 +640,7 @@
         <v>79716</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="19.5">
       <c r="A17" s="1" t="s">
         <v>17</v>
       </c>
@@ -642,7 +648,7 @@
         <v>78438</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="19.5">
       <c r="A18" s="1" t="s">
         <v>18</v>
       </c>
@@ -650,7 +656,7 @@
         <v>59146</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="19.5">
       <c r="A19" s="1" t="s">
         <v>19</v>
       </c>
@@ -658,7 +664,7 @@
         <v>55673</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="19.5">
       <c r="A20" s="1" t="s">
         <v>20</v>
       </c>
@@ -666,7 +672,7 @@
         <v>53483</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="19.5">
       <c r="A21" s="1" t="s">
         <v>21</v>
       </c>
@@ -674,7 +680,7 @@
         <v>50362</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="19.5">
       <c r="A22" s="1" t="s">
         <v>22</v>
       </c>
